--- a/free_recall_SHINY/Test Data/Version A Guess Recall Data.xlsx
+++ b/free_recall_SHINY/Test Data/Version A Guess Recall Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Guess-Test Project\GRAM 2016 Recall Experiments\Recall Data Files\Version A\Good Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\lrd\free_recall_SHINY\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B0C2B-A070-4F87-B287-49A0FD8FAA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
   <si>
     <t>A1CUTQUSPA2DPU</t>
   </si>
@@ -260,9 +261,6 @@
     <t xml:space="preserve">Thesaurus  quatrain  inscription  hieroglyphic  magazine          </t>
   </si>
   <si>
-    <t>Version A Guess</t>
-  </si>
-  <si>
     <t>cross,cousin,father, stadium,movie,gravy,</t>
   </si>
   <si>
@@ -278,9 +276,6 @@
     <t>platter,bowl,stove,freezer,glass,oven mitts,kettle,spoon,knife</t>
   </si>
   <si>
-    <t>Version A Int Recall</t>
-  </si>
-  <si>
     <t>L6</t>
   </si>
   <si>
@@ -462,9 +457,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parrot  Paraceet  Black bird  Swallow  Chicken  Cardinal  Eagle   Vulture  humming bird  </t>
-  </si>
-  <si>
-    <t>Version A Final Recall</t>
   </si>
   <si>
     <t xml:space="preserve">Vulture  Cardinal  Oriole  Eagle  Bluebird  Owl  Seagull  Woodpecker  Hummingbird  Starling  Frog  Lilypad  Snake  Money  Shamrock  Tree  Leaf  Caterpillar  Chameleon  Lizard  Cabinet  Bench  Farm  House  Baseball bat  Gazebo  Ruler  Boomerang  Mast  Sand  Mug  Pots  Stove  Freezer  Oven Mit  Skillet  Fork  Spoon  Knife  Spice Rack  Bowl  Plate  Strainer  Platter  Kettle  Flannel  Linen  Corduroy   Lace  Polyester  Felt  Roulette  Bike  Gear  Record  Crest  Dentist      </t>
@@ -515,7 +507,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,6 +663,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -706,6 +715,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -881,11 +907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,21 +923,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,27 +1010,27 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,13 +1038,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,13 +1066,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,27 +1094,27 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,13 +1136,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,13 +1150,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,13 +1164,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,27 +1178,27 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,13 +1206,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1220,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1234,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1248,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,27 +1262,27 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,13 +1290,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,13 +1304,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,13 +1318,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,13 +1332,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,27 +1346,27 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,13 +1374,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,13 +1388,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1367,13 +1402,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,13 +1416,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,27 +1430,27 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1423,13 +1458,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,13 +1472,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1451,13 +1486,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,13 +1500,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,27 +1514,27 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1521,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,13 +1570,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1549,13 +1584,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,27 +1598,27 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,13 +1626,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,13 +1640,13 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,13 +1654,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,13 +1668,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,27 +1682,27 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,13 +1710,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,13 +1724,13 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,13 +1738,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,13 +1752,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,26 +1766,12 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1761,11 +1782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,21 +1797,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" t="s">
-        <v>161</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1798,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1812,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1826,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1840,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,27 +1884,27 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,13 +1912,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1896,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1910,13 +1940,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1938,27 +1968,27 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1966,13 +1996,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>104</v>
+      <c r="D15" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1980,13 +2010,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,13 +2024,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2008,13 +2038,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2022,27 +2052,27 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>109</v>
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2050,13 +2080,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2064,13 +2094,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2078,13 +2108,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2092,13 +2122,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2106,27 +2136,27 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,13 +2164,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,13 +2178,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,13 +2192,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>118</v>
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2176,13 +2206,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,27 +2220,27 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>121</v>
+        <v>24</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2218,13 +2248,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,13 +2262,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2246,13 +2276,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,13 +2290,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>125</v>
+      <c r="D36" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2274,27 +2304,27 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>126</v>
+        <v>25</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2302,13 +2332,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2316,13 +2346,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2330,13 +2360,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2344,13 +2374,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,27 +2388,27 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2386,13 +2416,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2400,13 +2430,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2414,13 +2444,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,13 +2458,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>137</v>
+      <c r="D48" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,27 +2472,27 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>138</v>
+        <v>25</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,7 +2500,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>24</v>
@@ -2484,10 +2514,10 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>81</v>
@@ -2498,10 +2528,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>82</v>
@@ -2512,7 +2542,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -2526,27 +2556,27 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2554,13 +2584,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2568,13 +2598,13 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2582,13 +2612,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2596,13 +2626,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>144</v>
+      <c r="D60" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,27 +2640,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>146</v>
+        <v>25</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2640,11 +2656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,95 +2671,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/free_recall_SHINY/Test Data/Version A Guess Recall Data.xlsx
+++ b/free_recall_SHINY/Test Data/Version A Guess Recall Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\lrd\free_recall_SHINY\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B0C2B-A070-4F87-B287-49A0FD8FAA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3431FC1B-6225-4F92-BF03-788F5756878E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess Data" sheetId="1" r:id="rId1"/>
@@ -294,201 +294,6 @@
     <t>L18</t>
   </si>
   <si>
-    <t xml:space="preserve">Movie  Sunrise  Deck  Cousin  Cake  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wax  Candy  Jam  Debt  Orphan  </t>
-  </si>
-  <si>
-    <t>Bowling  Hockey  Rugby  Soccer  Archery  Gymnastics  Skiing  Wrestling  Boxing  Fencing  Softball  Golf  Badminton  Vp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House  Barn  Baseball Bat  Dock  Rocking Horse  Table  Desk  Chair  Cabinet  Bench  Ruler  Boomerang  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mug   Bowl  Plate  Measuring Cup  Platter  Strainer  Kettle  Stove  Oven Mit  Spice Rack  Pots  Skillet  Freezer  Fork  Spoon  Knife  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pigeon  Seagull  Woodpecker  Humingbird  Bluebird  Oriole  Vulture  Eagle  Owl  Cardinal  Starling  </t>
-  </si>
-  <si>
-    <t>Cross  Engine  Cousin  Zebra  Elephant</t>
-  </si>
-  <si>
-    <t>Bishop  Acre  Jam  Whale  Canteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boxing  Tennis  Archery  Badminton  Soccer  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House  Barn  Cabinet  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platter  Freezer  Saucepan  Spoon  </t>
-  </si>
-  <si>
-    <t>Bluebird  Parakeet  Owl  Eagle  Peacock</t>
-  </si>
-  <si>
-    <t>deck  cake  hamster  pilot  cousin  shore   earth  gravy  capsule  drift  father  bedroom  cross  crown  engine  clock</t>
-  </si>
-  <si>
-    <t>Desert  debt  index  acre  Whale  Bishop  lantern  Candy  Keg  wax  helmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hockey rugby golf wrestling ping-pong softball polo bowling boxing fishing   badminton soccer lacrosse </t>
-  </si>
-  <si>
-    <t>stairs   table   boomerang   house   clogs   shelf   rocking horse  Table  sled  pencil  gazebo</t>
-  </si>
-  <si>
-    <t>measuring cup  spoon  saucepan  knife  strainer  glass  oven mitts  kettle  bowl  platter  mixer</t>
-  </si>
-  <si>
-    <t>bluebird  eagle  blackbird  swallow  wren  wood pecker  vulture  dove  duck  chicken  seagull  parrot  falcon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stadium  Sheep  goat  mule  earth  squirrel  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empress  Vehicle  Helmet  Hermet  whale  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gymnastics  gold  soccer  wrestling  skiing  tracks  hockey  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">baseball  traffic  rocking house  traffic  road  chair  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knife  spoon  spice rack  freezer  oven mitts  mixer  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seagull  parrot  owl  chicken  duck  hummingbird  sparrow  falon  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">shore  clock  cake  cousin  poison  deck  cross  crown  movie  father  earth  sunrise  </t>
-  </si>
-  <si>
-    <t>jam  bishop  whale  wax  index  candy  helmet  debt  acre  manual  e</t>
-  </si>
-  <si>
-    <t>polo  golf  skiing  rugby  racing  bowling  boxing  track  soccer  fishing  archery  ping-pong</t>
-  </si>
-  <si>
-    <t>ship  house  sled  stairs  clogs  door  chair  bench  pencil  barn  shelf  ruler  cabinet</t>
-  </si>
-  <si>
-    <t>fork  stove  knife  freezer  glass  spoon  pots  kettle  mug  bowl  mixer  plate  strainer</t>
-  </si>
-  <si>
-    <t>duck  pigeon  owl  eagle  falcon  dove  chicken  seagull  swallow  parrot  vulture  ster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheep    goat     leopard    bear    elephant    mule    fox    deer    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acre    desert    whale    helmet    episode    jam    keg    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">badminton    golf    gymnastics    bowling    fencing    skiing    soccer    wrestling    </t>
-  </si>
-  <si>
-    <t>chair     house    bench    door    shelf    desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass    mixer    kettle    fork    knife    sauce pan    stove    can opener    </t>
-  </si>
-  <si>
-    <t>eagle    swallow    chicken    black bird    dove    humming bird    pegion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movie  capsule  cousin  father  hamster  sunrise  earth  cross  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">candy  jam  canteen  desert  episode  meteor  helmet  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rugby  bowling  soccer  lacrosse  badminton  golf  hockey  volleyball  softball  boxing   </t>
-  </si>
-  <si>
-    <t>chair  ruler  clogs  table  house  gazebo  stairs  door  shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can opener  freezer  mug  plate  fork  pots  glass  knife  spoon  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chicken  dove  swallow  duck  bluebird  blackbird  pigeon  falcon  owl  hummingbird  woodpecker  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cookie  cake  pie  clock  mother  father  cousin  watch  sun  moon  stars  babies  </t>
-  </si>
-  <si>
-    <t>dessert  dolphin  whale  stars  field  harvest  lantern  candle  candy  orphan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golf  basketball  football  baseball  tennis  badminton  volleyball  soccer  hockey  sprinting  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">table  chairs  stairs  window  door  pencil  pen  ship  canoe  tennis racket  baseball bat  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">blender  mixer  refrigerator  freezer  stove  can opener  glass  plate  bowl  spoon  pots  pans  cup  toaster  </t>
-  </si>
-  <si>
-    <t>vulture  buzzard  blackbird  bluebird  cardinal  robin  bluebird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duck,chicken,cardinal,oriole,seagull,falcon,eagle,blackbird,bluebird  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cake  Stadium  Father  chair  feather  dog  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canteen  Desert  Helmet  Keg  Bishop  Empress  Lantern  Jam  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fencing  Softball  Golf  Rugby  Ping-Pong  Soccer  Badmitten  Lacross  Gymnastics  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocking horse  Baseball bat  Barn  Ship  Deck   Dock  Clogs  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platter  pot   plate  fork  knife  measuring cup  Glass  mug  skillet  spice rack  oven  stove  strainer  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parrot  Paraceet  Black bird  Swallow  Chicken  Cardinal  Eagle   Vulture  humming bird  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vulture  Cardinal  Oriole  Eagle  Bluebird  Owl  Seagull  Woodpecker  Hummingbird  Starling  Frog  Lilypad  Snake  Money  Shamrock  Tree  Leaf  Caterpillar  Chameleon  Lizard  Cabinet  Bench  Farm  House  Baseball bat  Gazebo  Ruler  Boomerang  Mast  Sand  Mug  Pots  Stove  Freezer  Oven Mit  Skillet  Fork  Spoon  Knife  Spice Rack  Bowl  Plate  Strainer  Platter  Kettle  Flannel  Linen  Corduroy   Lace  Polyester  Felt  Roulette  Bike  Gear  Record  Crest  Dentist      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saucepan  Freezer  Orchestra  Drums  Bells  Kayak  Bluebird  Owl  Bishop  Patron  Frog  Algae  Forest  Snake  Rod  Manhole  Badminton   Chess  Soccer  Parakeet  Archery  Sage  Thyme  Clove  </t>
-  </si>
-  <si>
-    <t>eagle pigeon swallow falcon dove duck chicken spoon bishop lantern table   sled whistle chainsaw cherry raisin pear nectarine watermelon blackberry   apple pineapple peach cantaloupe sand crypt boomerang cousin shore   gravy rat sheep cake spice rack measuringcup Kettle saucepan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seagull  hummingbird  parrot  falcon  chicken  duck  road  traffic  public  place  earth  jungle  forest  hockey  soccer  wrestling  baseball  post  mailbox  spoon  mixer  freezer  knife  platter  pencil  table  chair  bottle  chiffon  oven mitts  mixer  squirrel  giraffe  rabbit  hermit  owl  elephant  whale  stadium  ground  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">eagle  swallow  chicken  black bird  dove  duck  humming bird  pigeon  seed  tree   mixer  shelf  chair  bench desk  can opener  bear  deer  leopard  elephant  mule  zebra  giraffe  donkey  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bluebird  blackbird  swallow  dove  owl  woodpecker  eagle  hummingbird  chicken  fork  spoon  plate  table  gazebo  donkey  raspberry  blueberry  blackberry  strawberry  mango  peach  apricot  watermelon  honeydew  golf  lacrosse  volleyball  softball  wrestling  fishing  badminton  boxing  soccer  bowling  pots  chair  oregano  onion salt  vanilla  chili  sugar    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">house  stairs  window  robin  cardinal  bluebird  cups  spoon  fork  knife  pots  pans  clock  watches  cinnamon  tumeric  garlic  onion  fennel  marjoram  cumin  bay leaf  fields  trees  sun  moon  boat  canoe  buzzard  vulture  dove  blackbird  sparrow  turkey  tuck  geese  babies  toddlers  infant  acorns  peanuts  walnuts  cupid  angel  star  moon  sun  pencil;  pen  ship  cat  deer  wolf  pandtiger  bear  alligator  lizard  chameleon  gecko  donkey  mule  horse dog  cloves  sugar  salt  peppert    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watermelon  Cantelope  Ship  Dock  humming bird  Swallow  Vulture  Chicken  cardinal  baseball bat  helmet  clogs  desert  mug  glass  measuring cup  pan  pot  oven  stove  plate  table  shop  patron  grape  snake  dog  spoon  fork  knife  whale  bowl  windmill  tornado  blade  yo-yo  track  soccer  golf  ping-pong  softball  bowling  gymnastics  lacrosse  wool  polyester  linen  sheepskin  lama      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parrot dove owl duck pigeon eagle text note letter play poem comic essay g  olf seed polo hockey boxing fishing cookie estate flask paste press wire pa  le tortoise canon vapor solar chiffon cheese lace twill gear crown cross eng  ine cousin horse donkey lion goat deer dog fox rat zebra bull donkey bear s  heep mule bomb acre train wax index candy bishop dessert jam telephone t  raffic crowd bells drums babies apple pineapple cherry mango coconut     </t>
-  </si>
-  <si>
-    <t>seagull oriole train can canoe duck zebra horse chicken eagle vulture   falcon plateer  stoven freezer oven   mitt baseball door lacrosse bowling rugby cross father door house stai  rs desk mule donckey elephant hockey bluebird blackbird dove wood  pecker rocket bomb acre hermit wax orphan cousin father</t>
-  </si>
-  <si>
     <t>List Num</t>
   </si>
   <si>
@@ -502,6 +307,201 @@
   </si>
   <si>
     <t>Subj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seagull hummingbird parrot falcon chicken duck road traffic public place earth jungle forest hockey soccer wrestling baseball post mailbox spoon mixer freezer knife platter pencil table chair bottle chiffon oven mitts mixer squirrel giraffe rabbit hermit owl elephant whale stadium ground </t>
+  </si>
+  <si>
+    <t>eagle pigeon swallow falcon dove duck chicken spoon bishop lantern table sled whistle chainsaw cherry raisin pear nectarine watermelon blackberry apple pineapple peach cantaloupe sand crypt boomerang cousin shore gravy rat sheep cake spice rack measuringcup Kettle saucepan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Sunrise Deck Cousin Cake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wax Candy Jam Debt Orphan </t>
+  </si>
+  <si>
+    <t>Bowling Hockey Rugby Soccer Archery Gymnastics Skiing Wrestling Boxing Fencing Softball Golf Badminton Vp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Barn Baseball Bat Dock Rocking Horse Table Desk Chair Cabinet Bench Ruler Boomerang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pigeon Seagull Woodpecker Humingbird Bluebird Oriole Vulture Eagle Owl Cardinal Starling </t>
+  </si>
+  <si>
+    <t>Cross Engine Cousin Zebra Elephant</t>
+  </si>
+  <si>
+    <t>Bishop Acre Jam Whale Canteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxing Tennis Archery Badminton Soccer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Barn Cabinet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platter Freezer Saucepan Spoon </t>
+  </si>
+  <si>
+    <t>Bluebird Parakeet Owl Eagle Peacock</t>
+  </si>
+  <si>
+    <t>Desert debt index acre Whale Bishop lantern Candy Keg wax helmet</t>
+  </si>
+  <si>
+    <t>measuring cup spoon saucepan knife strainer glass oven mitts kettle bowl platter mixer</t>
+  </si>
+  <si>
+    <t>bluebird eagle blackbird swallow wren wood pecker vulture dove duck chicken seagull parrot falcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadium Sheep goat mule earth squirrel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empress Vehicle Helmet Hermet whale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gymnastics gold soccer wrestling skiing tracks hockey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseball traffic rocking house traffic road chair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife spoon spice rack freezer oven mitts mixer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seagull parrot owl chicken duck hummingbird sparrow falon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shore clock cake cousin poison deck cross crown movie father earth sunrise </t>
+  </si>
+  <si>
+    <t>jam bishop whale wax index candy helmet debt acre manual e</t>
+  </si>
+  <si>
+    <t>polo golf skiing rugby racing bowling boxing track soccer fishing archery ping-pong</t>
+  </si>
+  <si>
+    <t>ship house sled stairs clogs door chair bench pencil barn shelf ruler cabinet</t>
+  </si>
+  <si>
+    <t>fork stove knife freezer glass spoon pots kettle mug bowl mixer plate strainer</t>
+  </si>
+  <si>
+    <t>duck pigeon owl eagle falcon dove chicken seagull swallow parrot vulture ster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movie capsule cousin father hamster sunrise earth cross </t>
+  </si>
+  <si>
+    <t xml:space="preserve">candy jam canteen desert episode meteor helmet </t>
+  </si>
+  <si>
+    <t>chair ruler clogs table house gazebo stairs door shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can opener freezer mug plate fork pots glass knife spoon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken dove swallow duck bluebird blackbird pigeon falcon owl hummingbird woodpecker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cookie cake pie clock mother father cousin watch sun moon stars babies </t>
+  </si>
+  <si>
+    <t>dessert dolphin whale stars field harvest lantern candle candy orphan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf basketball football baseball tennis badminton volleyball soccer hockey sprinting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">table chairs stairs window door pencil pen ship canoe tennis racket baseball bat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blender mixer refrigerator freezer stove can opener glass plate bowl spoon pots pans cup toaster </t>
+  </si>
+  <si>
+    <t>vulture buzzard blackbird bluebird cardinal robin bluebird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duck,chicken,cardinal,oriole,seagull,falcon,eagle,blackbird,bluebird </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cake Stadium Father chair feather dog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canteen Desert Helmet Keg Bishop Empress Lantern Jam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencing Softball Golf Rugby Ping-Pong Soccer Badmitten Lacross Gymnastics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mug Bowl Plate Measuring Cup Platter Strainer Kettle Stove Oven Mit Spice Rack Pots Skillet Freezer Fork Spoon Knife </t>
+  </si>
+  <si>
+    <t>deck cake hamster pilot cousin shore earth gravy capsule drift father bedroom cross crown engine clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hockey rugby golf wrestling ping-pong softball polo bowling boxing fishing badminton soccer lacrosse </t>
+  </si>
+  <si>
+    <t>stairs table boomerang house clogs shelf rocking horse Table sled pencil gazebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acre desert whale helmet episode jam keg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">badminton golf gymnastics bowling fencing skiing soccer wrestling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass mixer kettle fork knife sauce pan stove can opener </t>
+  </si>
+  <si>
+    <t>eagle swallow chicken black bird dove humming bird pegion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rugby bowling soccer lacrosse badminton golf hockey volleyball softball boxing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocking horse Baseball bat Barn Ship Deck Dock Clogs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platter pot plate fork knife measuring cup Glass mug skillet spice rack oven stove strainer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parrot Paraceet Black bird Swallow Chicken Cardinal Eagle Vulture humming bird </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheep goat leopard bear elephant mule fox deer </t>
+  </si>
+  <si>
+    <t>chair house bench door shelf desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saucepan Freezer Orchestra Drums Bells Kayak Bluebird Owl Bishop Patron Frog Algae Forest Snake Rod Manhole Badminton Chess Soccer Parakeet Archery Sage Thyme Clove </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eagle swallow chicken black bird dove duck humming bird pigeon seed tree mixer shelf chair bench desk can opener bear deer leopard elephant mule zebra giraffe donkey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bluebird blackbird swallow dove owl woodpecker eagle hummingbird chicken fork spoon plate table gazebo donkey raspberry blueberry blackberry strawberry mango peach apricot watermelon honeydew golf lacrosse volleyball softball wrestling fishing badminton boxing soccer bowling pots chair oregano onion salt vanilla chili sugar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">house stairs window robin cardinal bluebird cups spoon fork knife pots pans clock watches cinnamon tumeric garlic onion fennel marjoram cumin bay leaf fields trees sun moon boat canoe buzzard vulture dove blackbird sparrow turkey tuck geese babies toddlers infant acorns peanuts walnuts cupid angel star moon sun pencil; pen ship cat deer wolf pandtiger bear alligator lizard chameleon gecko donkey mule horse dog cloves sugar salt peppert </t>
+  </si>
+  <si>
+    <t>seagull oriole train can canoe duck zebra horse chicken eagle vulture falcon plateer stoven freezer oven mitt baseball door lacrosse bowling rugby cross father door house stai rs desk mule donckey elephant hockey bluebird blackbird dove wood pecker rocket bomb acre hermit wax orphan cousin father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulture Cardinal Oriole Eagle Bluebird Owl Seagull Woodpecker Hummingbird Starling Frog Lilypad Snake Money Shamrock Tree Leaf Caterpillar Chameleon Lizard Cabinet Bench Farm House Baseball bat Gazebo Ruler Boomerang Mast Sand Mug Pots Stove Freezer Oven Mit Skillet Fork Spoon Knife Spice Rack Bowl Plate Strainer Platter Kettle Flannel Linen Corduroy Lace Polyester Felt Roulette Bike Gear Record Crest Dentist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parrot dove owl duck pigeon eagle text note letter play poem comic essay golf seed polo hockey boxing fishing cookie estate flask paste press wire pa le tortoise canon vapor solar chiffon cheese lace twill gear crown cross eng ine cousin horse donkey lion goat deer dog fox rat zebra bull donkey bear sheep mule bomb acre train wax index candy bishop dessert jam telephone traffic crowd bells drums babies apple pineapple cherry mango coconut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watermelon Cantelope Ship Dock humming bird Swallow Vulture Chicken cardinal baseball bat helmet clogs desert mug glass measuring cup pan pot oven stove plate table shop patron grape snake dog spoon fork knife whale bowl windmill tornado blade yo-yo track soccer golf ping-pong softball bowling gymnastics lacrosse wool polyester linen sheepskin lama </t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -923,16 +923,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D28" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,16 +1797,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,7 +1848,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,7 +1904,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,7 +2086,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2142,7 +2142,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,7 +2310,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2450,7 +2450,7 @@
         <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>26</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2590,7 +2590,7 @@
         <v>24</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2618,7 +2618,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2659,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,10 +2671,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
